--- a/computer graduation/table/FY24_InternTraining综合测试.xlsx
+++ b/computer graduation/table/FY24_InternTraining综合测试.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26330"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24931"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\bak\新人教育\.NET FY24\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\software-hezhu\ZhuPersonGit\computer graduation\table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2" documentId="13_ncr:1_{FE454C7C-E92E-49C5-B925-BC8D1A108340}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{342AFFCC-121F-421E-8D42-363746D1254D}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8DACC19D-7F8B-49DA-BA25-787E3805A113}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="综合试题" sheetId="1" r:id="rId1"/>
@@ -111,7 +111,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -131,7 +131,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -141,7 +141,7 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -152,7 +152,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -172,7 +172,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -671,7 +671,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -825,13 +825,13 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="游ゴシック"/>
+      <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="6"/>
-      <name val="游ゴシック"/>
+      <name val="等线"/>
       <family val="3"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -861,7 +861,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="游ゴシック"/>
+      <name val="等线"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -869,7 +869,7 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="游ゴシック"/>
+      <name val="等线"/>
       <family val="3"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -886,7 +886,7 @@
       <b/>
       <sz val="14"/>
       <color theme="1"/>
-      <name val="游ゴシック"/>
+      <name val="等线"/>
       <family val="3"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -1070,7 +1070,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1470,15 +1470,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:colOff>6350</xdr:colOff>
       <xdr:row>5</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>82550</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>123355</xdr:colOff>
+      <xdr:colOff>129705</xdr:colOff>
       <xdr:row>32</xdr:row>
-      <xdr:rowOff>18244</xdr:rowOff>
+      <xdr:rowOff>100794</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1501,8 +1501,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="771525" y="1247775"/>
-          <a:ext cx="3761905" cy="6447619"/>
+          <a:off x="774700" y="1155700"/>
+          <a:ext cx="3660305" cy="4818844"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1841,15 +1841,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>2</xdr:col>
-          <xdr:colOff>9525</xdr:colOff>
+          <xdr:colOff>12700</xdr:colOff>
           <xdr:row>5</xdr:row>
-          <xdr:rowOff>28575</xdr:rowOff>
+          <xdr:rowOff>31750</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>4</xdr:col>
           <xdr:colOff>0</xdr:colOff>
           <xdr:row>7</xdr:row>
-          <xdr:rowOff>66675</xdr:rowOff>
+          <xdr:rowOff>69850</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -1896,15 +1896,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>2</xdr:col>
-          <xdr:colOff>9525</xdr:colOff>
+          <xdr:colOff>12700</xdr:colOff>
           <xdr:row>9</xdr:row>
-          <xdr:rowOff>28575</xdr:rowOff>
+          <xdr:rowOff>31750</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>3</xdr:col>
           <xdr:colOff>190500</xdr:colOff>
           <xdr:row>11</xdr:row>
-          <xdr:rowOff>66675</xdr:rowOff>
+          <xdr:rowOff>69850</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -1951,15 +1951,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>2</xdr:col>
-          <xdr:colOff>28575</xdr:colOff>
+          <xdr:colOff>31750</xdr:colOff>
           <xdr:row>13</xdr:row>
-          <xdr:rowOff>66675</xdr:rowOff>
+          <xdr:rowOff>69850</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>3</xdr:col>
-          <xdr:colOff>504825</xdr:colOff>
+          <xdr:colOff>508000</xdr:colOff>
           <xdr:row>15</xdr:row>
-          <xdr:rowOff>104775</xdr:rowOff>
+          <xdr:rowOff>107950</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -2269,101 +2269,101 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:W97"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="H32" workbookViewId="0">
-      <selection activeCell="Q35" sqref="Q35:V35"/>
+    <sheetView showGridLines="0" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75"/>
+  <sheetFormatPr defaultRowHeight="14"/>
   <cols>
     <col min="1" max="1" width="5.25" customWidth="1"/>
-    <col min="2" max="2" width="5.375" customWidth="1"/>
-    <col min="4" max="4" width="3.125" customWidth="1"/>
-    <col min="5" max="5" width="11.625" customWidth="1"/>
+    <col min="2" max="2" width="5.33203125" customWidth="1"/>
+    <col min="4" max="4" width="3.08203125" customWidth="1"/>
+    <col min="5" max="5" width="11.58203125" customWidth="1"/>
     <col min="6" max="6" width="10" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="20.625" customWidth="1"/>
+    <col min="12" max="12" width="20.58203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:3">
+    <row r="2" spans="2:3" ht="16.5">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="2:3">
+    <row r="3" spans="2:3" ht="16.5">
       <c r="C3" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="2:3">
+    <row r="5" spans="2:3" ht="16.5">
       <c r="B5" s="2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="2:3">
+    <row r="6" spans="2:3" ht="16.5">
       <c r="C6" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="2:3">
+    <row r="7" spans="2:3" ht="16.5">
       <c r="C7" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="2:3">
+    <row r="9" spans="2:3" ht="16.5">
       <c r="B9" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="2:3">
+    <row r="10" spans="2:3" ht="16.5">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="11" spans="2:3">
+    <row r="11" spans="2:3" ht="16.5">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="12" spans="2:3">
+    <row r="12" spans="2:3" ht="16.5">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="13" spans="2:3">
+    <row r="13" spans="2:3" ht="16.5">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="14" spans="2:3">
+    <row r="14" spans="2:3" ht="16.5">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="15" spans="2:3">
+    <row r="15" spans="2:3" ht="16.5">
       <c r="B15" s="1"/>
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="16" spans="2:3">
+    <row r="16" spans="2:3" ht="16.5">
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
     </row>
-    <row r="17" spans="2:12">
+    <row r="17" spans="2:12" ht="16.5">
       <c r="B17" s="2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="18" spans="2:12">
+    <row r="18" spans="2:12" ht="16.5">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="19" spans="2:12">
+    <row r="19" spans="2:12" ht="16.5">
       <c r="C19" s="3" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="20" spans="2:12">
+    <row r="20" spans="2:12" ht="16.5">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -2372,12 +2372,12 @@
       </c>
       <c r="E20" s="1"/>
     </row>
-    <row r="21" spans="2:12">
+    <row r="21" spans="2:12" ht="16.5">
       <c r="C21" s="1"/>
       <c r="D21" s="1"/>
       <c r="E21" s="1"/>
     </row>
-    <row r="22" spans="2:12">
+    <row r="22" spans="2:12" ht="16.5">
       <c r="C22" s="5" t="s">
         <v>17</v>
       </c>
@@ -2399,7 +2399,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="23" spans="2:12">
+    <row r="23" spans="2:12" ht="16.5">
       <c r="C23" s="7" t="s">
         <v>22</v>
       </c>
@@ -2421,7 +2421,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="24" spans="2:12">
+    <row r="24" spans="2:12" ht="16.5">
       <c r="C24" s="7" t="s">
         <v>27</v>
       </c>
@@ -2443,7 +2443,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="25" spans="2:12">
+    <row r="25" spans="2:12" ht="16.5">
       <c r="C25" s="7" t="s">
         <v>31</v>
       </c>
@@ -2465,38 +2465,38 @@
         <v>34</v>
       </c>
     </row>
-    <row r="26" spans="2:12">
+    <row r="26" spans="2:12" ht="16.5">
       <c r="C26" s="1"/>
       <c r="D26" s="1"/>
       <c r="E26" s="1"/>
     </row>
-    <row r="27" spans="2:12">
+    <row r="27" spans="2:12" ht="16.5">
       <c r="B27" s="2" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="28" spans="2:12">
+    <row r="28" spans="2:12" ht="16.5">
       <c r="C28" s="1" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="30" spans="2:12">
+    <row r="30" spans="2:12" ht="16.5">
       <c r="B30" s="2" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="31" spans="2:12">
+    <row r="31" spans="2:12" ht="16.5">
       <c r="C31" s="1" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="32" spans="2:12">
+    <row r="32" spans="2:12" ht="16.5">
       <c r="C32" s="17" t="s">
         <v>39</v>
       </c>
       <c r="E32" s="1"/>
     </row>
-    <row r="33" spans="3:23">
+    <row r="33" spans="3:23" ht="16.5">
       <c r="C33" s="25" t="s">
         <v>40</v>
       </c>
@@ -2531,7 +2531,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="34" spans="3:23">
+    <row r="34" spans="3:23" ht="16.5">
       <c r="C34" s="31">
         <v>1</v>
       </c>
@@ -2706,7 +2706,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="39" spans="3:23">
+    <row r="39" spans="3:23" ht="16.5">
       <c r="C39" s="31">
         <v>6</v>
       </c>
@@ -2741,7 +2741,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="40" spans="3:23">
+    <row r="40" spans="3:23" ht="16.5">
       <c r="C40" s="31">
         <v>7</v>
       </c>
@@ -2774,7 +2774,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="41" spans="3:23">
+    <row r="41" spans="3:23" ht="16.5">
       <c r="C41" s="31">
         <v>8</v>
       </c>
@@ -2844,13 +2844,13 @@
         <v>5</v>
       </c>
     </row>
-    <row r="43" spans="3:23">
+    <row r="43" spans="3:23" ht="16.5">
       <c r="W43" s="7">
         <f>SUM(W34:W42)</f>
         <v>100</v>
       </c>
     </row>
-    <row r="45" spans="3:23">
+    <row r="45" spans="3:23" ht="16.5">
       <c r="C45" s="38" t="s">
         <v>50</v>
       </c>
@@ -2858,7 +2858,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="70" spans="3:10">
+    <row r="70" spans="3:10" ht="16.5">
       <c r="C70" s="1" t="s">
         <v>80</v>
       </c>
@@ -2868,13 +2868,13 @@
         <v>81</v>
       </c>
     </row>
-    <row r="79" spans="3:10">
+    <row r="79" spans="3:10" ht="16.5">
       <c r="D79" s="1" t="s">
         <v>82</v>
       </c>
       <c r="E79" s="1"/>
     </row>
-    <row r="80" spans="3:10">
+    <row r="80" spans="3:10" ht="16.5">
       <c r="D80" s="10" t="s">
         <v>83</v>
       </c>
@@ -2889,7 +2889,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="81" spans="4:11">
+    <row r="81" spans="4:11" ht="16.5">
       <c r="D81" s="10" t="s">
         <v>86</v>
       </c>
@@ -2905,7 +2905,7 @@
       </c>
       <c r="K81" s="1"/>
     </row>
-    <row r="82" spans="4:11">
+    <row r="82" spans="4:11" ht="16.5">
       <c r="D82" s="10" t="s">
         <v>89</v>
       </c>
@@ -2919,7 +2919,7 @@
       <c r="J82" s="4"/>
       <c r="K82" s="1"/>
     </row>
-    <row r="83" spans="4:11">
+    <row r="83" spans="4:11" ht="16.5">
       <c r="D83" s="10" t="s">
         <v>91</v>
       </c>
@@ -2933,7 +2933,7 @@
       <c r="J83" s="4"/>
       <c r="K83" s="1"/>
     </row>
-    <row r="84" spans="4:11">
+    <row r="84" spans="4:11" ht="16.5">
       <c r="D84" s="10" t="s">
         <v>93</v>
       </c>
@@ -2946,7 +2946,7 @@
       <c r="I84" s="20"/>
       <c r="J84" s="4"/>
     </row>
-    <row r="85" spans="4:11">
+    <row r="85" spans="4:11" ht="16.5">
       <c r="D85" s="10" t="s">
         <v>95</v>
       </c>
@@ -2959,7 +2959,7 @@
       <c r="I85" s="20"/>
       <c r="J85" s="4"/>
     </row>
-    <row r="86" spans="4:11">
+    <row r="86" spans="4:11" ht="16.5">
       <c r="D86" s="10" t="s">
         <v>97</v>
       </c>
@@ -2976,7 +2976,7 @@
       <c r="F87" s="21"/>
       <c r="G87" s="21"/>
     </row>
-    <row r="88" spans="4:11">
+    <row r="88" spans="4:11" ht="16.5">
       <c r="D88" s="1" t="s">
         <v>99</v>
       </c>
@@ -2984,7 +2984,7 @@
       <c r="F88" s="21"/>
       <c r="G88" s="21"/>
     </row>
-    <row r="89" spans="4:11">
+    <row r="89" spans="4:11" ht="16.5">
       <c r="D89" s="10" t="s">
         <v>83</v>
       </c>
@@ -2999,7 +2999,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="90" spans="4:11">
+    <row r="90" spans="4:11" ht="16.5">
       <c r="D90" s="10" t="s">
         <v>86</v>
       </c>
@@ -3014,7 +3014,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="91" spans="4:11">
+    <row r="91" spans="4:11" ht="16.5">
       <c r="D91" s="10" t="s">
         <v>100</v>
       </c>
@@ -3029,7 +3029,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="92" spans="4:11">
+    <row r="92" spans="4:11" ht="16.5">
       <c r="D92" s="10" t="s">
         <v>45</v>
       </c>
@@ -3042,12 +3042,12 @@
       <c r="I92" s="20"/>
       <c r="J92" s="4"/>
     </row>
-    <row r="94" spans="4:11">
+    <row r="94" spans="4:11" ht="16.5">
       <c r="D94" s="1" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="95" spans="4:11">
+    <row r="95" spans="4:11" ht="16.5">
       <c r="D95" s="10" t="s">
         <v>83</v>
       </c>
@@ -3062,7 +3062,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="96" spans="4:11">
+    <row r="96" spans="4:11" ht="16.5">
       <c r="D96" s="10" t="s">
         <v>100</v>
       </c>
@@ -3077,7 +3077,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="97" spans="4:10">
+    <row r="97" spans="4:10" ht="16.5">
       <c r="D97" s="10" t="s">
         <v>104</v>
       </c>
@@ -3092,6 +3092,15 @@
     </row>
   </sheetData>
   <mergeCells count="24">
+    <mergeCell ref="F42:K42"/>
+    <mergeCell ref="L42:P42"/>
+    <mergeCell ref="Q42:V42"/>
+    <mergeCell ref="F40:K40"/>
+    <mergeCell ref="L40:P40"/>
+    <mergeCell ref="Q40:V40"/>
+    <mergeCell ref="F41:K41"/>
+    <mergeCell ref="L41:P41"/>
+    <mergeCell ref="Q41:V41"/>
     <mergeCell ref="F39:K39"/>
     <mergeCell ref="L39:P39"/>
     <mergeCell ref="Q39:V39"/>
@@ -3107,15 +3116,6 @@
     <mergeCell ref="F38:K38"/>
     <mergeCell ref="L38:P38"/>
     <mergeCell ref="Q38:V38"/>
-    <mergeCell ref="F42:K42"/>
-    <mergeCell ref="L42:P42"/>
-    <mergeCell ref="Q42:V42"/>
-    <mergeCell ref="F40:K40"/>
-    <mergeCell ref="L40:P40"/>
-    <mergeCell ref="Q40:V40"/>
-    <mergeCell ref="F41:K41"/>
-    <mergeCell ref="L41:P41"/>
-    <mergeCell ref="Q41:V41"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3128,34 +3128,34 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0E6724F4-90D5-4D92-BAA8-6FFD439106B9}">
   <dimension ref="B2:O104"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A52" workbookViewId="0">
-      <selection activeCell="C41" sqref="C41"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="I25" sqref="I25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75"/>
+  <sheetFormatPr defaultRowHeight="14"/>
   <cols>
     <col min="1" max="1" width="5.5" customWidth="1"/>
-    <col min="2" max="2" width="4.625" customWidth="1"/>
+    <col min="2" max="2" width="4.58203125" customWidth="1"/>
     <col min="4" max="4" width="11.75" customWidth="1"/>
-    <col min="15" max="15" width="54.875" customWidth="1"/>
+    <col min="15" max="15" width="54.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:3" ht="21">
+    <row r="2" spans="2:3" ht="20">
       <c r="B2" s="8" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="3" spans="2:3">
+    <row r="3" spans="2:3" ht="16.5">
       <c r="C3" s="1" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="5" spans="2:3" ht="21">
+    <row r="5" spans="2:3" ht="20">
       <c r="B5" s="8" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="35" spans="2:15">
+    <row r="35" spans="2:15" ht="16.5">
       <c r="C35" s="5" t="s">
         <v>109</v>
       </c>
@@ -3170,7 +3170,7 @@
       <c r="J35" s="14"/>
       <c r="K35" s="15"/>
     </row>
-    <row r="36" spans="2:15">
+    <row r="36" spans="2:15" ht="16.5">
       <c r="C36" s="7" t="s">
         <v>111</v>
       </c>
@@ -3185,7 +3185,7 @@
       <c r="J36" s="11"/>
       <c r="K36" s="12"/>
     </row>
-    <row r="37" spans="2:15">
+    <row r="37" spans="2:15" ht="16.5">
       <c r="C37" s="7" t="s">
         <v>113</v>
       </c>
@@ -3200,12 +3200,12 @@
       <c r="J37" s="11"/>
       <c r="K37" s="12"/>
     </row>
-    <row r="39" spans="2:15" ht="24">
+    <row r="39" spans="2:15" ht="17.5">
       <c r="B39" s="9" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="40" spans="2:15">
+    <row r="40" spans="2:15" ht="16.5">
       <c r="C40" s="5" t="s">
         <v>40</v>
       </c>
@@ -3232,7 +3232,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="41" spans="2:15">
+    <row r="41" spans="2:15" ht="16.5">
       <c r="C41" s="4">
         <v>1</v>
       </c>
@@ -3253,7 +3253,7 @@
       <c r="N41" s="4"/>
       <c r="O41" s="4"/>
     </row>
-    <row r="42" spans="2:15">
+    <row r="42" spans="2:15" ht="16.5">
       <c r="C42" s="4">
         <v>2</v>
       </c>
@@ -3274,7 +3274,7 @@
       <c r="N42" s="4"/>
       <c r="O42" s="4"/>
     </row>
-    <row r="43" spans="2:15">
+    <row r="43" spans="2:15" ht="16.5">
       <c r="C43" s="4">
         <v>3</v>
       </c>
@@ -3297,7 +3297,7 @@
       <c r="N43" s="4"/>
       <c r="O43" s="4"/>
     </row>
-    <row r="44" spans="2:15">
+    <row r="44" spans="2:15" ht="16.5">
       <c r="C44" s="4">
         <v>4</v>
       </c>
@@ -3318,7 +3318,7 @@
       <c r="N44" s="4"/>
       <c r="O44" s="4"/>
     </row>
-    <row r="45" spans="2:15">
+    <row r="45" spans="2:15" ht="16.5">
       <c r="C45" s="4">
         <v>5</v>
       </c>
@@ -3341,7 +3341,7 @@
       <c r="N45" s="4"/>
       <c r="O45" s="4"/>
     </row>
-    <row r="46" spans="2:15">
+    <row r="46" spans="2:15" ht="16.5">
       <c r="C46" s="4">
         <v>6</v>
       </c>
@@ -3364,7 +3364,7 @@
       <c r="N46" s="4"/>
       <c r="O46" s="4"/>
     </row>
-    <row r="47" spans="2:15">
+    <row r="47" spans="2:15" ht="16.5">
       <c r="C47" s="4">
         <v>7</v>
       </c>
@@ -3387,7 +3387,7 @@
       <c r="N47" s="4"/>
       <c r="O47" s="4"/>
     </row>
-    <row r="48" spans="2:15">
+    <row r="48" spans="2:15" ht="16.5">
       <c r="C48" s="4">
         <v>8</v>
       </c>
@@ -3410,7 +3410,7 @@
       <c r="N48" s="4"/>
       <c r="O48" s="4"/>
     </row>
-    <row r="49" spans="3:15">
+    <row r="49" spans="3:15" ht="16.5">
       <c r="C49" s="4">
         <v>9</v>
       </c>
@@ -3433,57 +3433,57 @@
       <c r="N49" s="4"/>
       <c r="O49" s="4"/>
     </row>
-    <row r="51" spans="3:15">
+    <row r="51" spans="3:15" ht="16.5">
       <c r="C51" s="3" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="60" spans="3:15">
+    <row r="60" spans="3:15" ht="16.5">
       <c r="C60" s="1" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="61" spans="3:15">
+    <row r="61" spans="3:15" ht="16.5">
       <c r="C61" s="1" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="70" spans="3:3">
+    <row r="70" spans="3:3" ht="16.5">
       <c r="C70" s="1" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="79" spans="3:3">
+    <row r="79" spans="3:3" ht="16.5">
       <c r="C79" s="1" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="88" spans="3:3">
+    <row r="88" spans="3:3" ht="16.5">
       <c r="C88" s="1" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="97" spans="2:3">
+    <row r="97" spans="2:3" ht="16.5">
       <c r="C97" s="1" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="99" spans="2:3" ht="21">
+    <row r="99" spans="2:3" ht="20">
       <c r="B99" s="8" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="101" spans="2:3">
+    <row r="101" spans="2:3" ht="16.5">
       <c r="C101" s="1" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="102" spans="2:3">
+    <row r="102" spans="2:3" ht="16.5">
       <c r="C102" s="1" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="104" spans="2:3">
+    <row r="104" spans="2:3" ht="16.5">
       <c r="C104" s="1" t="s">
         <v>134</v>
       </c>
@@ -3500,16 +3500,16 @@
   <dimension ref="B3:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75"/>
+  <sheetFormatPr defaultRowHeight="14"/>
   <cols>
-    <col min="3" max="3" width="23.625" customWidth="1"/>
-    <col min="4" max="4" width="22.625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.58203125" customWidth="1"/>
+    <col min="4" max="4" width="22.58203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:4">
+    <row r="3" spans="2:4" ht="16.5">
       <c r="B3" s="41" t="s">
         <v>135</v>
       </c>
@@ -3520,7 +3520,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="4" spans="2:4">
+    <row r="4" spans="2:4" ht="16.5">
       <c r="B4" s="4" t="s">
         <v>138</v>
       </c>
@@ -3531,7 +3531,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="5" spans="2:4">
+    <row r="5" spans="2:4" ht="16.5">
       <c r="B5" s="7" t="s">
         <v>141</v>
       </c>
@@ -3542,7 +3542,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="6" spans="2:4">
+    <row r="6" spans="2:4" ht="16.5">
       <c r="B6" s="7" t="s">
         <v>143</v>
       </c>
@@ -3553,7 +3553,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="7" spans="2:4">
+    <row r="7" spans="2:4" ht="16.5">
       <c r="B7" s="7" t="s">
         <v>146</v>
       </c>
@@ -3564,7 +3564,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="8" spans="2:4">
+    <row r="8" spans="2:4" ht="16.5">
       <c r="B8" s="7" t="s">
         <v>149</v>
       </c>
@@ -3575,7 +3575,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="9" spans="2:4">
+    <row r="9" spans="2:4" ht="16.5">
       <c r="B9" s="7" t="s">
         <v>152</v>
       </c>
@@ -3586,7 +3586,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="10" spans="2:4">
+    <row r="10" spans="2:4" ht="16.5">
       <c r="B10" s="7" t="s">
         <v>155</v>
       </c>
@@ -3611,19 +3611,19 @@
       <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75"/>
+  <sheetFormatPr defaultRowHeight="14"/>
   <sheetData>
-    <row r="5" spans="3:3">
+    <row r="5" spans="3:3" ht="16.5">
       <c r="C5" s="1" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="9" spans="3:3">
+    <row r="9" spans="3:3" ht="16.5">
       <c r="C9" s="1" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="13" spans="3:3">
+    <row r="13" spans="3:3" ht="16.5">
       <c r="C13" s="1" t="s">
         <v>160</v>
       </c>
@@ -3642,15 +3642,15 @@
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>2</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
+                <xdr:colOff>12700</xdr:colOff>
                 <xdr:row>5</xdr:row>
-                <xdr:rowOff>28575</xdr:rowOff>
+                <xdr:rowOff>31750</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>4</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
                 <xdr:row>7</xdr:row>
-                <xdr:rowOff>66675</xdr:rowOff>
+                <xdr:rowOff>69850</xdr:rowOff>
               </to>
             </anchor>
           </objectPr>
@@ -3667,15 +3667,15 @@
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>2</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
+                <xdr:colOff>12700</xdr:colOff>
                 <xdr:row>9</xdr:row>
-                <xdr:rowOff>28575</xdr:rowOff>
+                <xdr:rowOff>31750</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>3</xdr:col>
                 <xdr:colOff>190500</xdr:colOff>
                 <xdr:row>11</xdr:row>
-                <xdr:rowOff>66675</xdr:rowOff>
+                <xdr:rowOff>69850</xdr:rowOff>
               </to>
             </anchor>
           </objectPr>
@@ -3692,15 +3692,15 @@
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>2</xdr:col>
-                <xdr:colOff>28575</xdr:colOff>
+                <xdr:colOff>31750</xdr:colOff>
                 <xdr:row>13</xdr:row>
-                <xdr:rowOff>66675</xdr:rowOff>
+                <xdr:rowOff>69850</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>3</xdr:col>
-                <xdr:colOff>504825</xdr:colOff>
+                <xdr:colOff>508000</xdr:colOff>
                 <xdr:row>15</xdr:row>
-                <xdr:rowOff>104775</xdr:rowOff>
+                <xdr:rowOff>107950</xdr:rowOff>
               </to>
             </anchor>
           </objectPr>
@@ -3715,14 +3715,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="168e0357-5b39-4600-91c2-bfff6e896513" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="6a67b29a-ce33-475e-b45a-c3339d57486c">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3960,22 +3958,58 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="168e0357-5b39-4600-91c2-bfff6e896513" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="6a67b29a-ce33-475e-b45a-c3339d57486c">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{ECD921B5-9E28-4D46-B462-7A64A782A0D0}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6DD828FB-C1C6-4FCC-98C3-4F175FF59A95}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A983DED3-44FC-4281-BDE7-3906347EBF6C}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A983DED3-44FC-4281-BDE7-3906347EBF6C}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="6a67b29a-ce33-475e-b45a-c3339d57486c"/>
+    <ds:schemaRef ds:uri="168e0357-5b39-4600-91c2-bfff6e896513"/>
+    <ds:schemaRef ds:uri="cff19be7-6412-43f1-8a53-7ac90aaa43bd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6DD828FB-C1C6-4FCC-98C3-4F175FF59A95}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{ECD921B5-9E28-4D46-B462-7A64A782A0D0}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="6a67b29a-ce33-475e-b45a-c3339d57486c"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="168e0357-5b39-4600-91c2-bfff6e896513"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="cff19be7-6412-43f1-8a53-7ac90aaa43bd"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/computer graduation/table/FY24_InternTraining综合测试.xlsx
+++ b/computer graduation/table/FY24_InternTraining综合测试.xlsx
@@ -1,22 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\software-hezhu\ZhuPersonGit\computer graduation\table\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\gitcode\zhubiye\computer graduation\table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8DACC19D-7F8B-49DA-BA25-787E3805A113}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6D337E6-8567-4AE4-93D0-F539AD9A0FD4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="综合试题" sheetId="1" r:id="rId1"/>
-    <sheet name="报告范例" sheetId="5" r:id="rId2"/>
-    <sheet name="讲师邮箱" sheetId="6" r:id="rId3"/>
-    <sheet name="WPF基类参考" sheetId="3" r:id="rId4"/>
+    <sheet name="讲师邮箱" sheetId="6" r:id="rId2"/>
+    <sheet name="WPF基类参考" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191028"/>
   <extLst>
@@ -30,8 +29,6 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -39,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="161">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="132">
   <si>
     <t>目的：</t>
     <phoneticPr fontId="1"/>
@@ -581,141 +578,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>运行环境</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>VS2019+SQLServer2019+Office2016</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>程序结构</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>构成</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>说明</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Dao</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>DB访问层，提供各表增删改查</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>...</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>功能展示</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>完成</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>未完项说明</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>导师评分</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>导师备注</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t xml:space="preserve">    检索</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>分数的范围查询未实装</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t xml:space="preserve">    删除</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t xml:space="preserve">    新增/修改</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t xml:space="preserve">    导出</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t xml:space="preserve">    保存</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Microsoft YaHei"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>1.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>初期表示</t>
-    </r>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>2.检索</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>2-1输入学号检索</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>2-2输入姓名检索（模糊查询）</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>2-3选择总分，输入分数下线，检索总分&gt;=分数下线数据（范围查询）</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>2-4选择单科，输入分数上线，下线，检索分数下线&lt;=单科&lt;=分数上线数据（范围查询）</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>经验总结</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>1.入力check</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>采用实现INotifyDataErrorInfo接口+属性特性验证的方式...</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>2...</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>讲师</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -821,7 +683,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -875,30 +737,13 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="14"/>
-      <color theme="1"/>
-      <name val="Microsoft YaHei"/>
-      <family val="2"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="14"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <family val="3"/>
-      <charset val="128"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <name val="Microsoft YaHei"/>
       <family val="2"/>
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -908,12 +753,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.59999389629810485"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -988,7 +827,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -997,17 +836,12 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
@@ -1015,7 +849,6 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1055,10 +888,9 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -1467,389 +1299,20 @@
 
 <file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>6350</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>82550</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>129705</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>100794</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="図 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="774700" y="1155700"/>
-          <a:ext cx="3660305" cy="4818844"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>76200</xdr:colOff>
-      <xdr:row>51</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>495300</xdr:colOff>
-      <xdr:row>57</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="3" name="正方形/長方形 2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000003000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="847725" y="12277725"/>
-          <a:ext cx="4057650" cy="1590675"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="zh-CN" altLang="en-US" sz="1100"/>
-            <a:t>图</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>61</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>571500</xdr:colOff>
-      <xdr:row>67</xdr:row>
-      <xdr:rowOff>190500</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="4" name="正方形/長方形 3">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000004000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="923925" y="14678025"/>
-          <a:ext cx="4057650" cy="1590675"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="zh-CN" altLang="en-US" sz="1100"/>
-            <a:t>图</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>133350</xdr:colOff>
-      <xdr:row>70</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>552450</xdr:colOff>
-      <xdr:row>76</xdr:row>
-      <xdr:rowOff>209550</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="5" name="正方形/長方形 4">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000005000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="904875" y="16840200"/>
-          <a:ext cx="4057650" cy="1590675"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="zh-CN" altLang="en-US" sz="1100"/>
-            <a:t>图</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>190500</xdr:colOff>
-      <xdr:row>79</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>609600</xdr:colOff>
-      <xdr:row>85</xdr:row>
-      <xdr:rowOff>200025</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="6" name="正方形/長方形 5">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000006000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="962025" y="18973800"/>
-          <a:ext cx="4057650" cy="1590675"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="zh-CN" altLang="en-US" sz="1100"/>
-            <a:t>图</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>209550</xdr:colOff>
-      <xdr:row>88</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>628650</xdr:colOff>
-      <xdr:row>94</xdr:row>
-      <xdr:rowOff>209550</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="7" name="正方形/長方形 6">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000007000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="981075" y="21126450"/>
-          <a:ext cx="4057650" cy="1590675"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="zh-CN" altLang="en-US" sz="1100"/>
-            <a:t>图</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>2</xdr:col>
-          <xdr:colOff>12700</xdr:colOff>
+          <xdr:colOff>15240</xdr:colOff>
           <xdr:row>5</xdr:row>
-          <xdr:rowOff>31750</xdr:rowOff>
+          <xdr:rowOff>30480</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>4</xdr:col>
           <xdr:colOff>0</xdr:colOff>
           <xdr:row>7</xdr:row>
-          <xdr:rowOff>69850</xdr:rowOff>
+          <xdr:rowOff>68580</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -1896,15 +1359,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>2</xdr:col>
-          <xdr:colOff>12700</xdr:colOff>
+          <xdr:colOff>15240</xdr:colOff>
           <xdr:row>9</xdr:row>
-          <xdr:rowOff>31750</xdr:rowOff>
+          <xdr:rowOff>30480</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>3</xdr:col>
           <xdr:colOff>190500</xdr:colOff>
           <xdr:row>11</xdr:row>
-          <xdr:rowOff>69850</xdr:rowOff>
+          <xdr:rowOff>68580</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -1951,15 +1414,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>2</xdr:col>
-          <xdr:colOff>31750</xdr:colOff>
+          <xdr:colOff>30480</xdr:colOff>
           <xdr:row>13</xdr:row>
-          <xdr:rowOff>69850</xdr:rowOff>
+          <xdr:rowOff>68580</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>3</xdr:col>
-          <xdr:colOff>508000</xdr:colOff>
+          <xdr:colOff>510540</xdr:colOff>
           <xdr:row>15</xdr:row>
-          <xdr:rowOff>107950</xdr:rowOff>
+          <xdr:rowOff>106680</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -2273,97 +1736,97 @@
       <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14"/>
+  <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col min="1" max="1" width="5.25" customWidth="1"/>
+    <col min="1" max="1" width="5.21875" customWidth="1"/>
     <col min="2" max="2" width="5.33203125" customWidth="1"/>
-    <col min="4" max="4" width="3.08203125" customWidth="1"/>
-    <col min="5" max="5" width="11.58203125" customWidth="1"/>
+    <col min="4" max="4" width="3.109375" customWidth="1"/>
+    <col min="5" max="5" width="11.5546875" customWidth="1"/>
     <col min="6" max="6" width="10" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="20.58203125" customWidth="1"/>
+    <col min="12" max="12" width="20.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:3" ht="16.5">
+    <row r="2" spans="2:3" ht="16.2">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="2:3" ht="16.5">
+    <row r="3" spans="2:3" ht="15.6">
       <c r="C3" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="2:3" ht="16.5">
+    <row r="5" spans="2:3" ht="16.2">
       <c r="B5" s="2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="2:3" ht="16.5">
+    <row r="6" spans="2:3" ht="15.6">
       <c r="C6" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="2:3" ht="16.5">
+    <row r="7" spans="2:3" ht="15.6">
       <c r="C7" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="2:3" ht="16.5">
+    <row r="9" spans="2:3" ht="16.2">
       <c r="B9" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="2:3" ht="16.5">
+    <row r="10" spans="2:3" ht="15.6">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="11" spans="2:3" ht="16.5">
+    <row r="11" spans="2:3" ht="15.6">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="12" spans="2:3" ht="16.5">
+    <row r="12" spans="2:3" ht="15.6">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="13" spans="2:3" ht="16.5">
+    <row r="13" spans="2:3" ht="15.6">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="14" spans="2:3" ht="16.5">
+    <row r="14" spans="2:3" ht="15.6">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="15" spans="2:3" ht="16.5">
+    <row r="15" spans="2:3" ht="15.6">
       <c r="B15" s="1"/>
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="16" spans="2:3" ht="16.5">
+    <row r="16" spans="2:3" ht="15.6">
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
     </row>
-    <row r="17" spans="2:12" ht="16.5">
+    <row r="17" spans="2:12" ht="16.2">
       <c r="B17" s="2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="18" spans="2:12" ht="16.5">
+    <row r="18" spans="2:12" ht="15.6">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="19" spans="2:12" ht="16.5">
+    <row r="19" spans="2:12" ht="15.6">
       <c r="C19" s="3" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="20" spans="2:12" ht="16.5">
+    <row r="20" spans="2:12" ht="15.6">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -2372,493 +1835,493 @@
       </c>
       <c r="E20" s="1"/>
     </row>
-    <row r="21" spans="2:12" ht="16.5">
+    <row r="21" spans="2:12" ht="15.6">
       <c r="C21" s="1"/>
       <c r="D21" s="1"/>
       <c r="E21" s="1"/>
     </row>
-    <row r="22" spans="2:12" ht="16.5">
+    <row r="22" spans="2:12" ht="15.6">
       <c r="C22" s="5" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="E22" s="13"/>
-      <c r="F22" s="13" t="s">
+      <c r="E22" s="11"/>
+      <c r="F22" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="G22" s="14"/>
-      <c r="H22" s="15"/>
-      <c r="I22" s="13" t="s">
+      <c r="G22" s="12"/>
+      <c r="H22" s="13"/>
+      <c r="I22" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="J22" s="14"/>
-      <c r="K22" s="15"/>
+      <c r="J22" s="12"/>
+      <c r="K22" s="13"/>
       <c r="L22" s="6" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="23" spans="2:12" ht="16.5">
+    <row r="23" spans="2:12" ht="15.6">
       <c r="C23" s="7" t="s">
         <v>22</v>
       </c>
       <c r="D23" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="E23" s="10"/>
-      <c r="F23" s="40" t="s">
+      <c r="E23" s="8"/>
+      <c r="F23" s="35" t="s">
         <v>24</v>
       </c>
-      <c r="G23" s="11"/>
-      <c r="H23" s="12"/>
-      <c r="I23" s="10" t="s">
+      <c r="G23" s="9"/>
+      <c r="H23" s="10"/>
+      <c r="I23" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="J23" s="11"/>
-      <c r="K23" s="12"/>
+      <c r="J23" s="9"/>
+      <c r="K23" s="10"/>
       <c r="L23" s="7" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="24" spans="2:12" ht="16.5">
+    <row r="24" spans="2:12" ht="15.6">
       <c r="C24" s="7" t="s">
         <v>27</v>
       </c>
       <c r="D24" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="E24" s="10"/>
-      <c r="F24" s="10" t="s">
+      <c r="E24" s="8"/>
+      <c r="F24" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="G24" s="11"/>
-      <c r="H24" s="12"/>
-      <c r="I24" s="10" t="s">
+      <c r="G24" s="9"/>
+      <c r="H24" s="10"/>
+      <c r="I24" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="J24" s="11"/>
-      <c r="K24" s="12"/>
+      <c r="J24" s="9"/>
+      <c r="K24" s="10"/>
       <c r="L24" s="7" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="25" spans="2:12" ht="16.5">
+    <row r="25" spans="2:12" ht="15.6">
       <c r="C25" s="7" t="s">
         <v>31</v>
       </c>
       <c r="D25" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="E25" s="10"/>
-      <c r="F25" s="10" t="s">
+      <c r="E25" s="8"/>
+      <c r="F25" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="G25" s="11"/>
-      <c r="H25" s="12"/>
-      <c r="I25" s="10" t="s">
+      <c r="G25" s="9"/>
+      <c r="H25" s="10"/>
+      <c r="I25" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="J25" s="11"/>
-      <c r="K25" s="12"/>
+      <c r="J25" s="9"/>
+      <c r="K25" s="10"/>
       <c r="L25" s="7" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="26" spans="2:12" ht="16.5">
+    <row r="26" spans="2:12" ht="15.6">
       <c r="C26" s="1"/>
       <c r="D26" s="1"/>
       <c r="E26" s="1"/>
     </row>
-    <row r="27" spans="2:12" ht="16.5">
+    <row r="27" spans="2:12" ht="16.2">
       <c r="B27" s="2" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="28" spans="2:12" ht="16.5">
+    <row r="28" spans="2:12" ht="15.6">
       <c r="C28" s="1" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="30" spans="2:12" ht="16.5">
+    <row r="30" spans="2:12" ht="16.2">
       <c r="B30" s="2" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="31" spans="2:12" ht="16.5">
+    <row r="31" spans="2:12" ht="15.6">
       <c r="C31" s="1" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="32" spans="2:12" ht="16.5">
-      <c r="C32" s="17" t="s">
+    <row r="32" spans="2:12" ht="15.6">
+      <c r="C32" s="14" t="s">
         <v>39</v>
       </c>
       <c r="E32" s="1"/>
     </row>
-    <row r="33" spans="3:23" ht="16.5">
-      <c r="C33" s="25" t="s">
+    <row r="33" spans="3:23" ht="15.6">
+      <c r="C33" s="21" t="s">
         <v>40</v>
       </c>
-      <c r="D33" s="26" t="s">
+      <c r="D33" s="22" t="s">
         <v>41</v>
       </c>
-      <c r="E33" s="27"/>
-      <c r="F33" s="26" t="s">
+      <c r="E33" s="23"/>
+      <c r="F33" s="22" t="s">
         <v>42</v>
       </c>
-      <c r="G33" s="28"/>
-      <c r="H33" s="28"/>
-      <c r="I33" s="28"/>
-      <c r="J33" s="28"/>
-      <c r="K33" s="29"/>
-      <c r="L33" s="26" t="s">
+      <c r="G33" s="24"/>
+      <c r="H33" s="24"/>
+      <c r="I33" s="24"/>
+      <c r="J33" s="24"/>
+      <c r="K33" s="25"/>
+      <c r="L33" s="22" t="s">
         <v>43</v>
       </c>
-      <c r="M33" s="28"/>
-      <c r="N33" s="28"/>
-      <c r="O33" s="28"/>
-      <c r="P33" s="29"/>
-      <c r="Q33" s="26" t="s">
+      <c r="M33" s="24"/>
+      <c r="N33" s="24"/>
+      <c r="O33" s="24"/>
+      <c r="P33" s="25"/>
+      <c r="Q33" s="22" t="s">
         <v>44</v>
       </c>
-      <c r="R33" s="28"/>
-      <c r="S33" s="28"/>
-      <c r="T33" s="28"/>
-      <c r="U33" s="28"/>
-      <c r="V33" s="29"/>
-      <c r="W33" s="30" t="s">
+      <c r="R33" s="24"/>
+      <c r="S33" s="24"/>
+      <c r="T33" s="24"/>
+      <c r="U33" s="24"/>
+      <c r="V33" s="25"/>
+      <c r="W33" s="26" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="34" spans="3:23" ht="16.5">
-      <c r="C34" s="31">
+    <row r="34" spans="3:23" ht="15.6">
+      <c r="C34" s="27">
         <v>1</v>
       </c>
-      <c r="D34" s="32" t="s">
+      <c r="D34" s="28" t="s">
         <v>46</v>
       </c>
-      <c r="E34" s="33"/>
-      <c r="F34" s="32" t="s">
+      <c r="E34" s="29"/>
+      <c r="F34" s="28" t="s">
         <v>47</v>
       </c>
-      <c r="G34" s="34"/>
-      <c r="H34" s="34"/>
-      <c r="I34" s="34"/>
-      <c r="J34" s="34"/>
-      <c r="K34" s="35"/>
-      <c r="L34" s="32" t="s">
+      <c r="G34" s="30"/>
+      <c r="H34" s="30"/>
+      <c r="I34" s="30"/>
+      <c r="J34" s="30"/>
+      <c r="K34" s="31"/>
+      <c r="L34" s="28" t="s">
         <v>48</v>
       </c>
-      <c r="M34" s="34"/>
-      <c r="N34" s="34"/>
-      <c r="O34" s="34"/>
-      <c r="P34" s="35"/>
-      <c r="Q34" s="32" t="s">
+      <c r="M34" s="30"/>
+      <c r="N34" s="30"/>
+      <c r="O34" s="30"/>
+      <c r="P34" s="31"/>
+      <c r="Q34" s="28" t="s">
         <v>49</v>
       </c>
-      <c r="R34" s="34"/>
-      <c r="S34" s="34"/>
-      <c r="T34" s="34"/>
-      <c r="U34" s="34"/>
-      <c r="V34" s="35"/>
-      <c r="W34" s="36">
+      <c r="R34" s="30"/>
+      <c r="S34" s="30"/>
+      <c r="T34" s="30"/>
+      <c r="U34" s="30"/>
+      <c r="V34" s="31"/>
+      <c r="W34" s="32">
         <v>5</v>
       </c>
     </row>
     <row r="35" spans="3:23" ht="36" customHeight="1">
-      <c r="C35" s="31">
+      <c r="C35" s="27">
         <v>2</v>
       </c>
-      <c r="D35" s="32" t="s">
+      <c r="D35" s="28" t="s">
         <v>50</v>
       </c>
-      <c r="E35" s="37"/>
-      <c r="F35" s="42" t="s">
+      <c r="E35" s="33"/>
+      <c r="F35" s="37" t="s">
         <v>51</v>
       </c>
-      <c r="G35" s="43"/>
-      <c r="H35" s="43"/>
-      <c r="I35" s="43"/>
-      <c r="J35" s="43"/>
-      <c r="K35" s="44"/>
-      <c r="L35" s="42" t="s">
+      <c r="G35" s="38"/>
+      <c r="H35" s="38"/>
+      <c r="I35" s="38"/>
+      <c r="J35" s="38"/>
+      <c r="K35" s="39"/>
+      <c r="L35" s="37" t="s">
         <v>52</v>
       </c>
-      <c r="M35" s="43"/>
-      <c r="N35" s="43"/>
-      <c r="O35" s="43"/>
-      <c r="P35" s="44"/>
-      <c r="Q35" s="42" t="s">
+      <c r="M35" s="38"/>
+      <c r="N35" s="38"/>
+      <c r="O35" s="38"/>
+      <c r="P35" s="39"/>
+      <c r="Q35" s="37" t="s">
         <v>53</v>
       </c>
-      <c r="R35" s="43"/>
-      <c r="S35" s="43"/>
-      <c r="T35" s="43"/>
-      <c r="U35" s="43"/>
-      <c r="V35" s="44"/>
-      <c r="W35" s="36">
+      <c r="R35" s="38"/>
+      <c r="S35" s="38"/>
+      <c r="T35" s="38"/>
+      <c r="U35" s="38"/>
+      <c r="V35" s="39"/>
+      <c r="W35" s="32">
         <v>10</v>
       </c>
     </row>
     <row r="36" spans="3:23" ht="51.75" customHeight="1">
-      <c r="C36" s="31">
+      <c r="C36" s="27">
         <v>3</v>
       </c>
-      <c r="D36" s="32"/>
-      <c r="E36" s="37" t="s">
+      <c r="D36" s="28"/>
+      <c r="E36" s="33" t="s">
         <v>54</v>
       </c>
-      <c r="F36" s="42" t="s">
+      <c r="F36" s="37" t="s">
         <v>55</v>
       </c>
-      <c r="G36" s="43"/>
-      <c r="H36" s="43"/>
-      <c r="I36" s="43"/>
-      <c r="J36" s="43"/>
-      <c r="K36" s="44"/>
-      <c r="L36" s="42" t="s">
+      <c r="G36" s="38"/>
+      <c r="H36" s="38"/>
+      <c r="I36" s="38"/>
+      <c r="J36" s="38"/>
+      <c r="K36" s="39"/>
+      <c r="L36" s="37" t="s">
         <v>56</v>
       </c>
-      <c r="M36" s="43"/>
-      <c r="N36" s="43"/>
-      <c r="O36" s="43"/>
-      <c r="P36" s="44"/>
-      <c r="Q36" s="42" t="s">
+      <c r="M36" s="38"/>
+      <c r="N36" s="38"/>
+      <c r="O36" s="38"/>
+      <c r="P36" s="39"/>
+      <c r="Q36" s="37" t="s">
         <v>57</v>
       </c>
-      <c r="R36" s="43"/>
-      <c r="S36" s="43"/>
-      <c r="T36" s="43"/>
-      <c r="U36" s="43"/>
-      <c r="V36" s="44"/>
-      <c r="W36" s="36">
+      <c r="R36" s="38"/>
+      <c r="S36" s="38"/>
+      <c r="T36" s="38"/>
+      <c r="U36" s="38"/>
+      <c r="V36" s="39"/>
+      <c r="W36" s="32">
         <v>20</v>
       </c>
     </row>
     <row r="37" spans="3:23" ht="37.5" customHeight="1">
-      <c r="C37" s="31">
+      <c r="C37" s="27">
         <v>4</v>
       </c>
-      <c r="D37" s="32"/>
-      <c r="E37" s="37" t="s">
+      <c r="D37" s="28"/>
+      <c r="E37" s="33" t="s">
         <v>58</v>
       </c>
-      <c r="F37" s="42" t="s">
+      <c r="F37" s="37" t="s">
         <v>59</v>
       </c>
-      <c r="G37" s="43"/>
-      <c r="H37" s="43"/>
-      <c r="I37" s="43"/>
-      <c r="J37" s="43"/>
-      <c r="K37" s="44"/>
-      <c r="L37" s="42" t="s">
+      <c r="G37" s="38"/>
+      <c r="H37" s="38"/>
+      <c r="I37" s="38"/>
+      <c r="J37" s="38"/>
+      <c r="K37" s="39"/>
+      <c r="L37" s="37" t="s">
         <v>60</v>
       </c>
-      <c r="M37" s="43"/>
-      <c r="N37" s="43"/>
-      <c r="O37" s="43"/>
-      <c r="P37" s="44"/>
-      <c r="Q37" s="42" t="s">
+      <c r="M37" s="38"/>
+      <c r="N37" s="38"/>
+      <c r="O37" s="38"/>
+      <c r="P37" s="39"/>
+      <c r="Q37" s="37" t="s">
         <v>61</v>
       </c>
-      <c r="R37" s="43"/>
-      <c r="S37" s="43"/>
-      <c r="T37" s="43"/>
-      <c r="U37" s="43"/>
-      <c r="V37" s="44"/>
-      <c r="W37" s="36">
+      <c r="R37" s="38"/>
+      <c r="S37" s="38"/>
+      <c r="T37" s="38"/>
+      <c r="U37" s="38"/>
+      <c r="V37" s="39"/>
+      <c r="W37" s="32">
         <v>10</v>
       </c>
     </row>
     <row r="38" spans="3:23" ht="32.25" customHeight="1">
-      <c r="C38" s="31">
+      <c r="C38" s="27">
         <v>5</v>
       </c>
-      <c r="D38" s="32"/>
-      <c r="E38" s="37" t="s">
+      <c r="D38" s="28"/>
+      <c r="E38" s="33" t="s">
         <v>62</v>
       </c>
-      <c r="F38" s="42" t="s">
+      <c r="F38" s="37" t="s">
         <v>63</v>
       </c>
-      <c r="G38" s="43"/>
-      <c r="H38" s="43"/>
-      <c r="I38" s="43"/>
-      <c r="J38" s="43"/>
-      <c r="K38" s="44"/>
-      <c r="L38" s="42" t="s">
+      <c r="G38" s="38"/>
+      <c r="H38" s="38"/>
+      <c r="I38" s="38"/>
+      <c r="J38" s="38"/>
+      <c r="K38" s="39"/>
+      <c r="L38" s="37" t="s">
         <v>64</v>
       </c>
-      <c r="M38" s="43"/>
-      <c r="N38" s="43"/>
-      <c r="O38" s="43"/>
-      <c r="P38" s="44"/>
-      <c r="Q38" s="42" t="s">
+      <c r="M38" s="38"/>
+      <c r="N38" s="38"/>
+      <c r="O38" s="38"/>
+      <c r="P38" s="39"/>
+      <c r="Q38" s="37" t="s">
         <v>65</v>
       </c>
-      <c r="R38" s="43"/>
-      <c r="S38" s="43"/>
-      <c r="T38" s="43"/>
-      <c r="U38" s="43"/>
-      <c r="V38" s="44"/>
-      <c r="W38" s="36">
+      <c r="R38" s="38"/>
+      <c r="S38" s="38"/>
+      <c r="T38" s="38"/>
+      <c r="U38" s="38"/>
+      <c r="V38" s="39"/>
+      <c r="W38" s="32">
         <v>10</v>
       </c>
     </row>
-    <row r="39" spans="3:23" ht="16.5">
-      <c r="C39" s="31">
+    <row r="39" spans="3:23" ht="15.6">
+      <c r="C39" s="27">
         <v>6</v>
       </c>
-      <c r="D39" s="32"/>
-      <c r="E39" s="37" t="s">
+      <c r="D39" s="28"/>
+      <c r="E39" s="33" t="s">
         <v>66</v>
       </c>
-      <c r="F39" s="42" t="s">
+      <c r="F39" s="37" t="s">
         <v>67</v>
       </c>
-      <c r="G39" s="43"/>
-      <c r="H39" s="43"/>
-      <c r="I39" s="43"/>
-      <c r="J39" s="43"/>
-      <c r="K39" s="44"/>
-      <c r="L39" s="42" t="s">
+      <c r="G39" s="38"/>
+      <c r="H39" s="38"/>
+      <c r="I39" s="38"/>
+      <c r="J39" s="38"/>
+      <c r="K39" s="39"/>
+      <c r="L39" s="37" t="s">
         <v>68</v>
       </c>
-      <c r="M39" s="43"/>
-      <c r="N39" s="43"/>
-      <c r="O39" s="43"/>
-      <c r="P39" s="44"/>
-      <c r="Q39" s="42" t="s">
+      <c r="M39" s="38"/>
+      <c r="N39" s="38"/>
+      <c r="O39" s="38"/>
+      <c r="P39" s="39"/>
+      <c r="Q39" s="37" t="s">
         <v>69</v>
       </c>
-      <c r="R39" s="43"/>
-      <c r="S39" s="43"/>
-      <c r="T39" s="43"/>
-      <c r="U39" s="43"/>
-      <c r="V39" s="44"/>
-      <c r="W39" s="36">
+      <c r="R39" s="38"/>
+      <c r="S39" s="38"/>
+      <c r="T39" s="38"/>
+      <c r="U39" s="38"/>
+      <c r="V39" s="39"/>
+      <c r="W39" s="32">
         <v>10</v>
       </c>
     </row>
-    <row r="40" spans="3:23" ht="16.5">
-      <c r="C40" s="31">
+    <row r="40" spans="3:23" ht="15.6">
+      <c r="C40" s="27">
         <v>7</v>
       </c>
-      <c r="D40" s="32" t="s">
+      <c r="D40" s="28" t="s">
         <v>70</v>
       </c>
-      <c r="E40" s="37"/>
-      <c r="F40" s="42" t="s">
+      <c r="E40" s="33"/>
+      <c r="F40" s="37" t="s">
         <v>71</v>
       </c>
-      <c r="G40" s="43"/>
-      <c r="H40" s="43"/>
-      <c r="I40" s="43"/>
-      <c r="J40" s="43"/>
-      <c r="K40" s="44"/>
-      <c r="L40" s="42" t="s">
+      <c r="G40" s="38"/>
+      <c r="H40" s="38"/>
+      <c r="I40" s="38"/>
+      <c r="J40" s="38"/>
+      <c r="K40" s="39"/>
+      <c r="L40" s="37" t="s">
         <v>52</v>
       </c>
-      <c r="M40" s="43"/>
-      <c r="N40" s="43"/>
-      <c r="O40" s="43"/>
-      <c r="P40" s="44"/>
-      <c r="Q40" s="42"/>
-      <c r="R40" s="43"/>
-      <c r="S40" s="43"/>
-      <c r="T40" s="43"/>
-      <c r="U40" s="43"/>
-      <c r="V40" s="44"/>
-      <c r="W40" s="36">
+      <c r="M40" s="38"/>
+      <c r="N40" s="38"/>
+      <c r="O40" s="38"/>
+      <c r="P40" s="39"/>
+      <c r="Q40" s="37"/>
+      <c r="R40" s="38"/>
+      <c r="S40" s="38"/>
+      <c r="T40" s="38"/>
+      <c r="U40" s="38"/>
+      <c r="V40" s="39"/>
+      <c r="W40" s="32">
         <v>10</v>
       </c>
     </row>
-    <row r="41" spans="3:23" ht="16.5">
-      <c r="C41" s="31">
+    <row r="41" spans="3:23" ht="15.6">
+      <c r="C41" s="27">
         <v>8</v>
       </c>
-      <c r="D41" s="32"/>
-      <c r="E41" s="37" t="s">
+      <c r="D41" s="28"/>
+      <c r="E41" s="33" t="s">
         <v>72</v>
       </c>
-      <c r="F41" s="42" t="s">
+      <c r="F41" s="37" t="s">
         <v>73</v>
       </c>
-      <c r="G41" s="43"/>
-      <c r="H41" s="43"/>
-      <c r="I41" s="43"/>
-      <c r="J41" s="43"/>
-      <c r="K41" s="44"/>
-      <c r="L41" s="42" t="s">
+      <c r="G41" s="38"/>
+      <c r="H41" s="38"/>
+      <c r="I41" s="38"/>
+      <c r="J41" s="38"/>
+      <c r="K41" s="39"/>
+      <c r="L41" s="37" t="s">
         <v>74</v>
       </c>
-      <c r="M41" s="43"/>
-      <c r="N41" s="43"/>
-      <c r="O41" s="43"/>
-      <c r="P41" s="44"/>
-      <c r="Q41" s="42" t="s">
+      <c r="M41" s="38"/>
+      <c r="N41" s="38"/>
+      <c r="O41" s="38"/>
+      <c r="P41" s="39"/>
+      <c r="Q41" s="37" t="s">
         <v>75</v>
       </c>
-      <c r="R41" s="43"/>
-      <c r="S41" s="43"/>
-      <c r="T41" s="43"/>
-      <c r="U41" s="43"/>
-      <c r="V41" s="44"/>
-      <c r="W41" s="36">
+      <c r="R41" s="38"/>
+      <c r="S41" s="38"/>
+      <c r="T41" s="38"/>
+      <c r="U41" s="38"/>
+      <c r="V41" s="39"/>
+      <c r="W41" s="32">
         <v>20</v>
       </c>
     </row>
     <row r="42" spans="3:23" ht="51.75" customHeight="1">
-      <c r="C42" s="31">
+      <c r="C42" s="27">
         <v>9</v>
       </c>
-      <c r="D42" s="32" t="s">
+      <c r="D42" s="28" t="s">
         <v>76</v>
       </c>
-      <c r="E42" s="37"/>
-      <c r="F42" s="42" t="s">
+      <c r="E42" s="33"/>
+      <c r="F42" s="37" t="s">
         <v>77</v>
       </c>
-      <c r="G42" s="43"/>
-      <c r="H42" s="43"/>
-      <c r="I42" s="43"/>
-      <c r="J42" s="43"/>
-      <c r="K42" s="44"/>
-      <c r="L42" s="42" t="s">
+      <c r="G42" s="38"/>
+      <c r="H42" s="38"/>
+      <c r="I42" s="38"/>
+      <c r="J42" s="38"/>
+      <c r="K42" s="39"/>
+      <c r="L42" s="37" t="s">
         <v>78</v>
       </c>
-      <c r="M42" s="43"/>
-      <c r="N42" s="43"/>
-      <c r="O42" s="43"/>
-      <c r="P42" s="44"/>
-      <c r="Q42" s="42" t="s">
+      <c r="M42" s="38"/>
+      <c r="N42" s="38"/>
+      <c r="O42" s="38"/>
+      <c r="P42" s="39"/>
+      <c r="Q42" s="37" t="s">
         <v>79</v>
       </c>
-      <c r="R42" s="43"/>
-      <c r="S42" s="43"/>
-      <c r="T42" s="43"/>
-      <c r="U42" s="43"/>
-      <c r="V42" s="44"/>
-      <c r="W42" s="36">
+      <c r="R42" s="38"/>
+      <c r="S42" s="38"/>
+      <c r="T42" s="38"/>
+      <c r="U42" s="38"/>
+      <c r="V42" s="39"/>
+      <c r="W42" s="32">
         <v>5</v>
       </c>
     </row>
-    <row r="43" spans="3:23" ht="16.5">
+    <row r="43" spans="3:23" ht="15.6">
       <c r="W43" s="7">
         <f>SUM(W34:W42)</f>
         <v>100</v>
       </c>
     </row>
-    <row r="45" spans="3:23" ht="16.5">
-      <c r="C45" s="38" t="s">
+    <row r="45" spans="3:23" ht="15.6">
+      <c r="C45" s="34" t="s">
         <v>50</v>
       </c>
       <c r="P45" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="70" spans="3:10" ht="16.5">
+    <row r="70" spans="3:10" ht="15.6">
       <c r="C70" s="1" t="s">
         <v>80</v>
       </c>
@@ -2868,239 +2331,230 @@
         <v>81</v>
       </c>
     </row>
-    <row r="79" spans="3:10" ht="16.5">
+    <row r="79" spans="3:10" ht="15.6">
       <c r="D79" s="1" t="s">
         <v>82</v>
       </c>
       <c r="E79" s="1"/>
     </row>
-    <row r="80" spans="3:10" ht="16.5">
-      <c r="D80" s="10" t="s">
+    <row r="80" spans="3:10" ht="15.6">
+      <c r="D80" s="8" t="s">
         <v>83</v>
       </c>
-      <c r="E80" s="18"/>
-      <c r="F80" s="19" t="s">
+      <c r="E80" s="15"/>
+      <c r="F80" s="16" t="s">
         <v>84</v>
       </c>
-      <c r="G80" s="22"/>
-      <c r="H80" s="23"/>
-      <c r="I80" s="20"/>
+      <c r="G80" s="19"/>
+      <c r="H80" s="20"/>
+      <c r="I80" s="17"/>
       <c r="J80" s="7" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="81" spans="4:11" ht="16.5">
-      <c r="D81" s="10" t="s">
+    <row r="81" spans="4:11" ht="15.6">
+      <c r="D81" s="8" t="s">
         <v>86</v>
       </c>
-      <c r="E81" s="18"/>
-      <c r="F81" s="19" t="s">
+      <c r="E81" s="15"/>
+      <c r="F81" s="16" t="s">
         <v>87</v>
       </c>
-      <c r="G81" s="22"/>
-      <c r="H81" s="23"/>
-      <c r="I81" s="20"/>
+      <c r="G81" s="19"/>
+      <c r="H81" s="20"/>
+      <c r="I81" s="17"/>
       <c r="J81" s="7" t="s">
         <v>88</v>
       </c>
       <c r="K81" s="1"/>
     </row>
-    <row r="82" spans="4:11" ht="16.5">
-      <c r="D82" s="10" t="s">
+    <row r="82" spans="4:11" ht="15.6">
+      <c r="D82" s="8" t="s">
         <v>89</v>
       </c>
-      <c r="E82" s="18"/>
-      <c r="F82" s="19" t="s">
+      <c r="E82" s="15"/>
+      <c r="F82" s="16" t="s">
         <v>90</v>
       </c>
-      <c r="G82" s="22"/>
-      <c r="H82" s="23"/>
-      <c r="I82" s="20"/>
+      <c r="G82" s="19"/>
+      <c r="H82" s="20"/>
+      <c r="I82" s="17"/>
       <c r="J82" s="4"/>
       <c r="K82" s="1"/>
     </row>
-    <row r="83" spans="4:11" ht="16.5">
-      <c r="D83" s="10" t="s">
+    <row r="83" spans="4:11" ht="15.6">
+      <c r="D83" s="8" t="s">
         <v>91</v>
       </c>
-      <c r="E83" s="18"/>
-      <c r="F83" s="19" t="s">
+      <c r="E83" s="15"/>
+      <c r="F83" s="16" t="s">
         <v>92</v>
       </c>
-      <c r="G83" s="22"/>
-      <c r="H83" s="23"/>
-      <c r="I83" s="20"/>
+      <c r="G83" s="19"/>
+      <c r="H83" s="20"/>
+      <c r="I83" s="17"/>
       <c r="J83" s="4"/>
       <c r="K83" s="1"/>
     </row>
-    <row r="84" spans="4:11" ht="16.5">
-      <c r="D84" s="10" t="s">
+    <row r="84" spans="4:11" ht="15.6">
+      <c r="D84" s="8" t="s">
         <v>93</v>
       </c>
-      <c r="E84" s="18"/>
-      <c r="F84" s="19" t="s">
+      <c r="E84" s="15"/>
+      <c r="F84" s="16" t="s">
         <v>94</v>
       </c>
-      <c r="G84" s="22"/>
-      <c r="H84" s="23"/>
-      <c r="I84" s="20"/>
+      <c r="G84" s="19"/>
+      <c r="H84" s="20"/>
+      <c r="I84" s="17"/>
       <c r="J84" s="4"/>
     </row>
-    <row r="85" spans="4:11" ht="16.5">
-      <c r="D85" s="10" t="s">
+    <row r="85" spans="4:11" ht="15.6">
+      <c r="D85" s="8" t="s">
         <v>95</v>
       </c>
-      <c r="E85" s="18"/>
-      <c r="F85" s="19" t="s">
+      <c r="E85" s="15"/>
+      <c r="F85" s="16" t="s">
         <v>96</v>
       </c>
-      <c r="G85" s="22"/>
-      <c r="H85" s="23"/>
-      <c r="I85" s="20"/>
+      <c r="G85" s="19"/>
+      <c r="H85" s="20"/>
+      <c r="I85" s="17"/>
       <c r="J85" s="4"/>
     </row>
-    <row r="86" spans="4:11" ht="16.5">
-      <c r="D86" s="10" t="s">
+    <row r="86" spans="4:11" ht="15.6">
+      <c r="D86" s="8" t="s">
         <v>97</v>
       </c>
-      <c r="E86" s="18"/>
-      <c r="F86" s="19" t="s">
+      <c r="E86" s="15"/>
+      <c r="F86" s="16" t="s">
         <v>98</v>
       </c>
-      <c r="G86" s="22"/>
-      <c r="H86" s="23"/>
-      <c r="I86" s="20"/>
+      <c r="G86" s="19"/>
+      <c r="H86" s="20"/>
+      <c r="I86" s="17"/>
       <c r="J86" s="4"/>
     </row>
     <row r="87" spans="4:11">
-      <c r="F87" s="21"/>
-      <c r="G87" s="21"/>
-    </row>
-    <row r="88" spans="4:11" ht="16.5">
+      <c r="F87" s="18"/>
+      <c r="G87" s="18"/>
+    </row>
+    <row r="88" spans="4:11" ht="15.6">
       <c r="D88" s="1" t="s">
         <v>99</v>
       </c>
       <c r="E88" s="1"/>
-      <c r="F88" s="21"/>
-      <c r="G88" s="21"/>
-    </row>
-    <row r="89" spans="4:11" ht="16.5">
-      <c r="D89" s="10" t="s">
+      <c r="F88" s="18"/>
+      <c r="G88" s="18"/>
+    </row>
+    <row r="89" spans="4:11" ht="15.6">
+      <c r="D89" s="8" t="s">
         <v>83</v>
       </c>
-      <c r="E89" s="18"/>
-      <c r="F89" s="19" t="s">
+      <c r="E89" s="15"/>
+      <c r="F89" s="16" t="s">
         <v>84</v>
       </c>
-      <c r="G89" s="22"/>
-      <c r="H89" s="23"/>
-      <c r="I89" s="20"/>
+      <c r="G89" s="19"/>
+      <c r="H89" s="20"/>
+      <c r="I89" s="17"/>
       <c r="J89" s="7" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="90" spans="4:11" ht="16.5">
-      <c r="D90" s="10" t="s">
+    <row r="90" spans="4:11" ht="15.6">
+      <c r="D90" s="8" t="s">
         <v>86</v>
       </c>
-      <c r="E90" s="18"/>
-      <c r="F90" s="19">
+      <c r="E90" s="15"/>
+      <c r="F90" s="16">
         <v>1001</v>
       </c>
-      <c r="G90" s="22"/>
-      <c r="H90" s="23"/>
-      <c r="I90" s="20"/>
+      <c r="G90" s="19"/>
+      <c r="H90" s="20"/>
+      <c r="I90" s="17"/>
       <c r="J90" s="7" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="91" spans="4:11" ht="16.5">
-      <c r="D91" s="10" t="s">
+    <row r="91" spans="4:11" ht="15.6">
+      <c r="D91" s="8" t="s">
         <v>100</v>
       </c>
-      <c r="E91" s="18"/>
-      <c r="F91" s="19" t="s">
+      <c r="E91" s="15"/>
+      <c r="F91" s="16" t="s">
         <v>101</v>
       </c>
-      <c r="G91" s="22"/>
-      <c r="H91" s="23"/>
-      <c r="I91" s="20"/>
+      <c r="G91" s="19"/>
+      <c r="H91" s="20"/>
+      <c r="I91" s="17"/>
       <c r="J91" s="7" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="92" spans="4:11" ht="16.5">
-      <c r="D92" s="10" t="s">
+    <row r="92" spans="4:11" ht="15.6">
+      <c r="D92" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="E92" s="18"/>
-      <c r="F92" s="19" t="s">
+      <c r="E92" s="15"/>
+      <c r="F92" s="16" t="s">
         <v>102</v>
       </c>
-      <c r="G92" s="22"/>
-      <c r="H92" s="23"/>
-      <c r="I92" s="20"/>
+      <c r="G92" s="19"/>
+      <c r="H92" s="20"/>
+      <c r="I92" s="17"/>
       <c r="J92" s="4"/>
     </row>
-    <row r="94" spans="4:11" ht="16.5">
+    <row r="94" spans="4:11" ht="15.6">
       <c r="D94" s="1" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="95" spans="4:11" ht="16.5">
-      <c r="D95" s="10" t="s">
+    <row r="95" spans="4:11" ht="15.6">
+      <c r="D95" s="8" t="s">
         <v>83</v>
       </c>
-      <c r="E95" s="18"/>
-      <c r="F95" s="19" t="s">
+      <c r="E95" s="15"/>
+      <c r="F95" s="16" t="s">
         <v>84</v>
       </c>
-      <c r="G95" s="22"/>
-      <c r="H95" s="23"/>
-      <c r="I95" s="20"/>
+      <c r="G95" s="19"/>
+      <c r="H95" s="20"/>
+      <c r="I95" s="17"/>
       <c r="J95" s="7" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="96" spans="4:11" ht="16.5">
-      <c r="D96" s="10" t="s">
+    <row r="96" spans="4:11" ht="15.6">
+      <c r="D96" s="8" t="s">
         <v>100</v>
       </c>
-      <c r="E96" s="18"/>
-      <c r="F96" s="19" t="s">
+      <c r="E96" s="15"/>
+      <c r="F96" s="16" t="s">
         <v>101</v>
       </c>
-      <c r="G96" s="22"/>
-      <c r="H96" s="23"/>
-      <c r="I96" s="20"/>
+      <c r="G96" s="19"/>
+      <c r="H96" s="20"/>
+      <c r="I96" s="17"/>
       <c r="J96" s="7" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="97" spans="4:10" ht="16.5">
-      <c r="D97" s="10" t="s">
+    <row r="97" spans="4:10" ht="15.6">
+      <c r="D97" s="8" t="s">
         <v>104</v>
       </c>
-      <c r="E97" s="18"/>
-      <c r="F97" s="19" t="s">
+      <c r="E97" s="15"/>
+      <c r="F97" s="16" t="s">
         <v>105</v>
       </c>
-      <c r="G97" s="22"/>
-      <c r="H97" s="23"/>
-      <c r="I97" s="20"/>
+      <c r="G97" s="19"/>
+      <c r="H97" s="20"/>
+      <c r="I97" s="17"/>
       <c r="J97" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="F42:K42"/>
-    <mergeCell ref="L42:P42"/>
-    <mergeCell ref="Q42:V42"/>
-    <mergeCell ref="F40:K40"/>
-    <mergeCell ref="L40:P40"/>
-    <mergeCell ref="Q40:V40"/>
-    <mergeCell ref="F41:K41"/>
-    <mergeCell ref="L41:P41"/>
-    <mergeCell ref="Q41:V41"/>
     <mergeCell ref="F39:K39"/>
     <mergeCell ref="L39:P39"/>
     <mergeCell ref="Q39:V39"/>
@@ -3116,6 +2570,15 @@
     <mergeCell ref="F38:K38"/>
     <mergeCell ref="L38:P38"/>
     <mergeCell ref="Q38:V38"/>
+    <mergeCell ref="F42:K42"/>
+    <mergeCell ref="L42:P42"/>
+    <mergeCell ref="Q42:V42"/>
+    <mergeCell ref="F40:K40"/>
+    <mergeCell ref="L40:P40"/>
+    <mergeCell ref="Q40:V40"/>
+    <mergeCell ref="F41:K41"/>
+    <mergeCell ref="L41:P41"/>
+    <mergeCell ref="Q41:V41"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3125,476 +2588,105 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0E6724F4-90D5-4D92-BAA8-6FFD439106B9}">
-  <dimension ref="B2:O104"/>
-  <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="I25" sqref="I25"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14"/>
-  <cols>
-    <col min="1" max="1" width="5.5" customWidth="1"/>
-    <col min="2" max="2" width="4.58203125" customWidth="1"/>
-    <col min="4" max="4" width="11.75" customWidth="1"/>
-    <col min="15" max="15" width="54.83203125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="2:3" ht="20">
-      <c r="B2" s="8" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="3" spans="2:3" ht="16.5">
-      <c r="C3" s="1" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="5" spans="2:3" ht="20">
-      <c r="B5" s="8" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="35" spans="2:15" ht="16.5">
-      <c r="C35" s="5" t="s">
-        <v>109</v>
-      </c>
-      <c r="D35" s="13" t="s">
-        <v>110</v>
-      </c>
-      <c r="E35" s="14"/>
-      <c r="F35" s="14"/>
-      <c r="G35" s="14"/>
-      <c r="H35" s="14"/>
-      <c r="I35" s="14"/>
-      <c r="J35" s="14"/>
-      <c r="K35" s="15"/>
-    </row>
-    <row r="36" spans="2:15" ht="16.5">
-      <c r="C36" s="7" t="s">
-        <v>111</v>
-      </c>
-      <c r="D36" s="10" t="s">
-        <v>112</v>
-      </c>
-      <c r="E36" s="11"/>
-      <c r="F36" s="11"/>
-      <c r="G36" s="11"/>
-      <c r="H36" s="11"/>
-      <c r="I36" s="11"/>
-      <c r="J36" s="11"/>
-      <c r="K36" s="12"/>
-    </row>
-    <row r="37" spans="2:15" ht="16.5">
-      <c r="C37" s="7" t="s">
-        <v>113</v>
-      </c>
-      <c r="D37" s="10" t="s">
-        <v>113</v>
-      </c>
-      <c r="E37" s="11"/>
-      <c r="F37" s="11"/>
-      <c r="G37" s="11"/>
-      <c r="H37" s="11"/>
-      <c r="I37" s="11"/>
-      <c r="J37" s="11"/>
-      <c r="K37" s="12"/>
-    </row>
-    <row r="39" spans="2:15" ht="17.5">
-      <c r="B39" s="9" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="40" spans="2:15" ht="16.5">
-      <c r="C40" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="D40" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="E40" s="5" t="s">
-        <v>115</v>
-      </c>
-      <c r="F40" s="13" t="s">
-        <v>116</v>
-      </c>
-      <c r="G40" s="14"/>
-      <c r="H40" s="14"/>
-      <c r="I40" s="14"/>
-      <c r="J40" s="14"/>
-      <c r="K40" s="14"/>
-      <c r="L40" s="14"/>
-      <c r="M40" s="15"/>
-      <c r="N40" s="39" t="s">
-        <v>117</v>
-      </c>
-      <c r="O40" s="39" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="41" spans="2:15" ht="16.5">
-      <c r="C41" s="4">
-        <v>1</v>
-      </c>
-      <c r="D41" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="E41" s="24">
-        <v>1</v>
-      </c>
-      <c r="F41" s="10"/>
-      <c r="G41" s="11"/>
-      <c r="H41" s="11"/>
-      <c r="I41" s="11"/>
-      <c r="J41" s="11"/>
-      <c r="K41" s="11"/>
-      <c r="L41" s="11"/>
-      <c r="M41" s="12"/>
-      <c r="N41" s="4"/>
-      <c r="O41" s="4"/>
-    </row>
-    <row r="42" spans="2:15" ht="16.5">
-      <c r="C42" s="4">
-        <v>2</v>
-      </c>
-      <c r="D42" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="E42" s="24">
-        <v>1</v>
-      </c>
-      <c r="F42" s="10"/>
-      <c r="G42" s="11"/>
-      <c r="H42" s="11"/>
-      <c r="I42" s="11"/>
-      <c r="J42" s="11"/>
-      <c r="K42" s="11"/>
-      <c r="L42" s="11"/>
-      <c r="M42" s="12"/>
-      <c r="N42" s="4"/>
-      <c r="O42" s="4"/>
-    </row>
-    <row r="43" spans="2:15" ht="16.5">
-      <c r="C43" s="4">
-        <v>3</v>
-      </c>
-      <c r="D43" s="16" t="s">
-        <v>119</v>
-      </c>
-      <c r="E43" s="24">
-        <v>0.8</v>
-      </c>
-      <c r="F43" s="10" t="s">
-        <v>120</v>
-      </c>
-      <c r="G43" s="11"/>
-      <c r="H43" s="11"/>
-      <c r="I43" s="11"/>
-      <c r="J43" s="11"/>
-      <c r="K43" s="11"/>
-      <c r="L43" s="11"/>
-      <c r="M43" s="12"/>
-      <c r="N43" s="4"/>
-      <c r="O43" s="4"/>
-    </row>
-    <row r="44" spans="2:15" ht="16.5">
-      <c r="C44" s="4">
-        <v>4</v>
-      </c>
-      <c r="D44" s="16" t="s">
-        <v>121</v>
-      </c>
-      <c r="E44" s="24">
-        <v>1</v>
-      </c>
-      <c r="F44" s="10"/>
-      <c r="G44" s="11"/>
-      <c r="H44" s="11"/>
-      <c r="I44" s="11"/>
-      <c r="J44" s="11"/>
-      <c r="K44" s="11"/>
-      <c r="L44" s="11"/>
-      <c r="M44" s="12"/>
-      <c r="N44" s="4"/>
-      <c r="O44" s="4"/>
-    </row>
-    <row r="45" spans="2:15" ht="16.5">
-      <c r="C45" s="4">
-        <v>5</v>
-      </c>
-      <c r="D45" s="16" t="s">
-        <v>122</v>
-      </c>
-      <c r="E45" s="7" t="s">
-        <v>113</v>
-      </c>
-      <c r="F45" s="10" t="s">
-        <v>113</v>
-      </c>
-      <c r="G45" s="11"/>
-      <c r="H45" s="11"/>
-      <c r="I45" s="11"/>
-      <c r="J45" s="11"/>
-      <c r="K45" s="11"/>
-      <c r="L45" s="11"/>
-      <c r="M45" s="12"/>
-      <c r="N45" s="4"/>
-      <c r="O45" s="4"/>
-    </row>
-    <row r="46" spans="2:15" ht="16.5">
-      <c r="C46" s="4">
-        <v>6</v>
-      </c>
-      <c r="D46" s="16" t="s">
-        <v>123</v>
-      </c>
-      <c r="E46" s="7" t="s">
-        <v>113</v>
-      </c>
-      <c r="F46" s="10" t="s">
-        <v>113</v>
-      </c>
-      <c r="G46" s="11"/>
-      <c r="H46" s="11"/>
-      <c r="I46" s="11"/>
-      <c r="J46" s="11"/>
-      <c r="K46" s="11"/>
-      <c r="L46" s="11"/>
-      <c r="M46" s="12"/>
-      <c r="N46" s="4"/>
-      <c r="O46" s="4"/>
-    </row>
-    <row r="47" spans="2:15" ht="16.5">
-      <c r="C47" s="4">
-        <v>7</v>
-      </c>
-      <c r="D47" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="E47" s="7" t="s">
-        <v>113</v>
-      </c>
-      <c r="F47" s="10" t="s">
-        <v>113</v>
-      </c>
-      <c r="G47" s="11"/>
-      <c r="H47" s="11"/>
-      <c r="I47" s="11"/>
-      <c r="J47" s="11"/>
-      <c r="K47" s="11"/>
-      <c r="L47" s="11"/>
-      <c r="M47" s="12"/>
-      <c r="N47" s="4"/>
-      <c r="O47" s="4"/>
-    </row>
-    <row r="48" spans="2:15" ht="16.5">
-      <c r="C48" s="4">
-        <v>8</v>
-      </c>
-      <c r="D48" s="16" t="s">
-        <v>124</v>
-      </c>
-      <c r="E48" s="7" t="s">
-        <v>113</v>
-      </c>
-      <c r="F48" s="10" t="s">
-        <v>113</v>
-      </c>
-      <c r="G48" s="11"/>
-      <c r="H48" s="11"/>
-      <c r="I48" s="11"/>
-      <c r="J48" s="11"/>
-      <c r="K48" s="11"/>
-      <c r="L48" s="11"/>
-      <c r="M48" s="12"/>
-      <c r="N48" s="4"/>
-      <c r="O48" s="4"/>
-    </row>
-    <row r="49" spans="3:15" ht="16.5">
-      <c r="C49" s="4">
-        <v>9</v>
-      </c>
-      <c r="D49" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="E49" s="7" t="s">
-        <v>113</v>
-      </c>
-      <c r="F49" s="10" t="s">
-        <v>113</v>
-      </c>
-      <c r="G49" s="11"/>
-      <c r="H49" s="11"/>
-      <c r="I49" s="11"/>
-      <c r="J49" s="11"/>
-      <c r="K49" s="11"/>
-      <c r="L49" s="11"/>
-      <c r="M49" s="12"/>
-      <c r="N49" s="4"/>
-      <c r="O49" s="4"/>
-    </row>
-    <row r="51" spans="3:15" ht="16.5">
-      <c r="C51" s="3" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="60" spans="3:15" ht="16.5">
-      <c r="C60" s="1" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="61" spans="3:15" ht="16.5">
-      <c r="C61" s="1" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="70" spans="3:3" ht="16.5">
-      <c r="C70" s="1" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="79" spans="3:3" ht="16.5">
-      <c r="C79" s="1" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="88" spans="3:3" ht="16.5">
-      <c r="C88" s="1" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="97" spans="2:3" ht="16.5">
-      <c r="C97" s="1" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="99" spans="2:3" ht="20">
-      <c r="B99" s="8" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="101" spans="2:3" ht="16.5">
-      <c r="C101" s="1" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="102" spans="2:3" ht="16.5">
-      <c r="C102" s="1" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="104" spans="2:3" ht="16.5">
-      <c r="C104" s="1" t="s">
-        <v>134</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{19A3EE2E-5446-4084-A2A8-BDB78C22EFAD}">
   <dimension ref="B3:D10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14"/>
+  <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col min="3" max="3" width="23.58203125" customWidth="1"/>
-    <col min="4" max="4" width="22.58203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.5546875" customWidth="1"/>
+    <col min="4" max="4" width="22.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:4" ht="16.5">
-      <c r="B3" s="41" t="s">
-        <v>135</v>
-      </c>
-      <c r="C3" s="41" t="s">
-        <v>136</v>
-      </c>
-      <c r="D3" s="41" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="4" spans="2:4" ht="16.5">
+    <row r="3" spans="2:4" ht="15.6">
+      <c r="B3" s="36" t="s">
+        <v>106</v>
+      </c>
+      <c r="C3" s="36" t="s">
+        <v>107</v>
+      </c>
+      <c r="D3" s="36" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="4" spans="2:4" ht="15.6">
       <c r="B4" s="4" t="s">
-        <v>138</v>
+        <v>109</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>139</v>
+        <v>110</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="5" spans="2:4" ht="16.5">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="5" spans="2:4" ht="15.6">
       <c r="B5" s="7" t="s">
-        <v>141</v>
+        <v>112</v>
       </c>
       <c r="C5" s="7" t="s">
         <v>22</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="6" spans="2:4" ht="16.5">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="6" spans="2:4" ht="15.6">
       <c r="B6" s="7" t="s">
-        <v>143</v>
+        <v>114</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>144</v>
+        <v>115</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="7" spans="2:4" ht="16.5">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="7" spans="2:4" ht="15.6">
       <c r="B7" s="7" t="s">
-        <v>146</v>
+        <v>117</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>147</v>
+        <v>118</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="8" spans="2:4" ht="16.5">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="8" spans="2:4" ht="15.6">
       <c r="B8" s="7" t="s">
-        <v>149</v>
+        <v>120</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>150</v>
+        <v>121</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="9" spans="2:4" ht="16.5">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="9" spans="2:4" ht="15.6">
       <c r="B9" s="7" t="s">
-        <v>152</v>
+        <v>123</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>153</v>
+        <v>124</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="10" spans="2:4" ht="16.5">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="10" spans="2:4" ht="15.6">
       <c r="B10" s="7" t="s">
-        <v>155</v>
+        <v>126</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>156</v>
+        <v>127</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>157</v>
+        <v>128</v>
       </c>
     </row>
   </sheetData>
@@ -3603,7 +2695,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{12FB7A88-277E-4DB6-A780-365DF43D917F}">
   <dimension ref="C5:C13"/>
   <sheetViews>
@@ -3611,21 +2703,21 @@
       <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14"/>
+  <sheetFormatPr defaultRowHeight="13.8"/>
   <sheetData>
-    <row r="5" spans="3:3" ht="16.5">
+    <row r="5" spans="3:3" ht="15.6">
       <c r="C5" s="1" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="9" spans="3:3" ht="16.5">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="9" spans="3:3" ht="15.6">
       <c r="C9" s="1" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="13" spans="3:3" ht="16.5">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="13" spans="3:3" ht="15.6">
       <c r="C13" s="1" t="s">
-        <v>160</v>
+        <v>131</v>
       </c>
     </row>
   </sheetData>
@@ -3642,15 +2734,15 @@
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>2</xdr:col>
-                <xdr:colOff>12700</xdr:colOff>
+                <xdr:colOff>15240</xdr:colOff>
                 <xdr:row>5</xdr:row>
-                <xdr:rowOff>31750</xdr:rowOff>
+                <xdr:rowOff>30480</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>4</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
                 <xdr:row>7</xdr:row>
-                <xdr:rowOff>69850</xdr:rowOff>
+                <xdr:rowOff>68580</xdr:rowOff>
               </to>
             </anchor>
           </objectPr>
@@ -3667,15 +2759,15 @@
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>2</xdr:col>
-                <xdr:colOff>12700</xdr:colOff>
+                <xdr:colOff>15240</xdr:colOff>
                 <xdr:row>9</xdr:row>
-                <xdr:rowOff>31750</xdr:rowOff>
+                <xdr:rowOff>30480</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>3</xdr:col>
                 <xdr:colOff>190500</xdr:colOff>
                 <xdr:row>11</xdr:row>
-                <xdr:rowOff>69850</xdr:rowOff>
+                <xdr:rowOff>68580</xdr:rowOff>
               </to>
             </anchor>
           </objectPr>
@@ -3692,15 +2784,15 @@
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>2</xdr:col>
-                <xdr:colOff>31750</xdr:colOff>
+                <xdr:colOff>30480</xdr:colOff>
                 <xdr:row>13</xdr:row>
-                <xdr:rowOff>69850</xdr:rowOff>
+                <xdr:rowOff>68580</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>3</xdr:col>
-                <xdr:colOff>508000</xdr:colOff>
+                <xdr:colOff>510540</xdr:colOff>
                 <xdr:row>15</xdr:row>
-                <xdr:rowOff>107950</xdr:rowOff>
+                <xdr:rowOff>106680</xdr:rowOff>
               </to>
             </anchor>
           </objectPr>
@@ -3715,12 +2807,14 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="168e0357-5b39-4600-91c2-bfff6e896513" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="6a67b29a-ce33-475e-b45a-c3339d57486c">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3958,20 +3052,28 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="168e0357-5b39-4600-91c2-bfff6e896513" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="6a67b29a-ce33-475e-b45a-c3339d57486c">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6DD828FB-C1C6-4FCC-98C3-4F175FF59A95}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{ECD921B5-9E28-4D46-B462-7A64A782A0D0}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="6a67b29a-ce33-475e-b45a-c3339d57486c"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="168e0357-5b39-4600-91c2-bfff6e896513"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="cff19be7-6412-43f1-8a53-7ac90aaa43bd"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -3997,19 +3099,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{ECD921B5-9E28-4D46-B462-7A64A782A0D0}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6DD828FB-C1C6-4FCC-98C3-4F175FF59A95}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="6a67b29a-ce33-475e-b45a-c3339d57486c"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="168e0357-5b39-4600-91c2-bfff6e896513"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="cff19be7-6412-43f1-8a53-7ac90aaa43bd"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>